--- a/Law_FOIA_Data/Raw_FOIA_Data/4.F_Pending_Police_Cases_Report.xlsx
+++ b/Law_FOIA_Data/Raw_FOIA_Data/4.F_Pending_Police_Cases_Report.xlsx
@@ -1,9 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25da44189c46647c/GitHub_Repos/CPD_2000s_Lawsuit_Data_Repo/CPD_2000s_Lawsuit_Data/Law_FOIA_Data/Raw_FOIA_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_931C228F865856D02802FE8D68222BC31298C716" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Attorney Caseload" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,7 +161,7 @@
     <t>2013 C 04425</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael Ayala v P. O. Joseph Walsh (#12865), P.O. Rosales (Star #9854), P.O. Reyes (Star #19831), P.O. Adwallah (Star #17199), P.O. Carillo (Star #13744), P.O. Kellam (Star #10012), P.O. Moya (Star #17172), City of Chicago  
+    <t xml:space="preserve">Michael Ayala v P. O. Joseph Walsh (#12865), P.O. Rosales (Star #9854), P.O. Reyes (Star #19831), P.O. Adwallah (Star #17199), P.O. Carillo (Star #13744), P.O. Kellam (Star #10012), P.O. Moya (Star #17172), City of Chicago  _x000D_
 </t>
   </si>
   <si>
@@ -251,14 +273,14 @@
     <t>2014 C 07191</t>
   </si>
   <si>
-    <t xml:space="preserve">Debra Sauer v. Methodist Hospital, Northwestern Memorial Hospital, Dr. Maher AlKoubaytari, Dr. Aaron
+    <t>Debra Sauer v. Methodist Hospital, Northwestern Memorial Hospital, Dr. Maher AlKoubaytari, Dr. Aaron_x000D_
 Grossman, Dr. Maxim Chasanov, Cerritos (last name unknown), Dr. Christopher Lowden, Dr. Ronald Gordineer, Chicago Police Officers Olivia Stovall and S. Rogos, City of Chicago</t>
   </si>
   <si>
     <t>2014 C 07718</t>
   </si>
   <si>
-    <t xml:space="preserve">Christopher Smith v. City of Chicago, Chicago Police Officer M.M. Conway, #14005, Chicago Police Officer J.J. Dillon #17331, and Chicago Police Officer Brownfield, #15752
+    <t xml:space="preserve">Christopher Smith v. City of Chicago, Chicago Police Officer M.M. Conway, #14005, Chicago Police Officer J.J. Dillon #17331, and Chicago Police Officer Brownfield, #15752_x000D_
 </t>
   </si>
   <si>
@@ -838,7 +860,7 @@
     <t>2018 C 00338</t>
   </si>
   <si>
-    <t xml:space="preserve">Calvin Leon Louis v City of Chicago, Marceila Heard Detectives (John Doe) Detective (John Doe)
+    <t xml:space="preserve">Calvin Leon Louis v City of Chicago, Marceila Heard Detectives (John Doe) Detective (John Doe)_x000D_
 </t>
   </si>
   <si>
@@ -2624,11 +2646,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="m\/d\/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m\/d\/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2636,29 +2658,29 @@
     </font>
     <font>
       <sz val="6"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2667,10 +2689,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2695,16 +2714,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2713,54 +2732,368 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E428"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1197" customWidth="1"/>
-    <col min="2" max="2" width="43.6359986666667" customWidth="1"/>
-    <col min="3" max="3" width="8.03543333333333" customWidth="1"/>
-    <col min="4" max="5" width="27.8093" customWidth="1"/>
-    <col min="6" max="6" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="7.4662" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="31.4647" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2777,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2794,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +3135,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>37126.0416666667</v>
+        <v>37126.041666666701</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -2811,7 +3144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2819,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5">
-        <v>39257.0416666667</v>
+        <v>39257.041666666701</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -2828,7 +3161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -2845,7 +3178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2862,7 +3195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -2879,7 +3212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2896,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +3246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2930,7 +3263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -2947,7 +3280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="123.1923" customHeight="1">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -2964,7 +3297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2981,7 +3314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -2998,7 +3331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3015,7 +3348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -3032,7 +3365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -3049,7 +3382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
@@ -3066,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -3083,7 +3416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -3100,7 +3433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -3117,7 +3450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
@@ -3134,7 +3467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -3151,7 +3484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -3168,7 +3501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -3185,7 +3518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
@@ -3202,7 +3535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
@@ -3219,7 +3552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
@@ -3236,7 +3569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -3253,7 +3586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -3270,7 +3603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -3287,7 +3620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="142.9244" customHeight="1">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -3304,7 +3637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
@@ -3321,7 +3654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -3338,7 +3671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
@@ -3355,7 +3688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -3372,7 +3705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
@@ -3389,7 +3722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
@@ -3406,7 +3739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>87</v>
       </c>
@@ -3423,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
@@ -3440,7 +3773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
@@ -3457,7 +3790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>93</v>
       </c>
@@ -3474,7 +3807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>95</v>
       </c>
@@ -3491,7 +3824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
@@ -3508,7 +3841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>99</v>
       </c>
@@ -3525,7 +3858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
@@ -3542,7 +3875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>103</v>
       </c>
@@ -3559,7 +3892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
@@ -3576,7 +3909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>107</v>
       </c>
@@ -3593,7 +3926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>109</v>
       </c>
@@ -3610,7 +3943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>111</v>
       </c>
@@ -3627,7 +3960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>113</v>
       </c>
@@ -3644,7 +3977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>115</v>
       </c>
@@ -3661,7 +3994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>117</v>
       </c>
@@ -3678,7 +4011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>119</v>
       </c>
@@ -3695,7 +4028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3712,7 +4045,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>124</v>
       </c>
@@ -3729,7 +4062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>126</v>
       </c>
@@ -3746,7 +4079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
@@ -3763,7 +4096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>130</v>
       </c>
@@ -3780,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>132</v>
       </c>
@@ -3797,7 +4130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>134</v>
       </c>
@@ -3814,7 +4147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>136</v>
       </c>
@@ -3831,7 +4164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>138</v>
       </c>
@@ -3848,7 +4181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>140</v>
       </c>
@@ -3865,7 +4198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>142</v>
       </c>
@@ -3882,7 +4215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>144</v>
       </c>
@@ -3899,7 +4232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>146</v>
       </c>
@@ -3916,7 +4249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>148</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>150</v>
       </c>
@@ -3950,7 +4283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>152</v>
       </c>
@@ -3967,7 +4300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>154</v>
       </c>
@@ -3984,7 +4317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>156</v>
       </c>
@@ -4001,7 +4334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>158</v>
       </c>
@@ -4018,7 +4351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>160</v>
       </c>
@@ -4035,7 +4368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>162</v>
       </c>
@@ -4052,7 +4385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="153.0571" customHeight="1">
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>164</v>
       </c>
@@ -4069,7 +4402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>166</v>
       </c>
@@ -4086,7 +4419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="92.7942" customHeight="1">
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>168</v>
       </c>
@@ -4103,7 +4436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>170</v>
       </c>
@@ -4120,7 +4453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="82" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>172</v>
       </c>
@@ -4137,7 +4470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="83" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>174</v>
       </c>
@@ -4154,7 +4487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="84" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>176</v>
       </c>
@@ -4171,7 +4504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="85" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>178</v>
       </c>
@@ -4188,7 +4521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="86" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>180</v>
       </c>
@@ -4205,7 +4538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="87" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>182</v>
       </c>
@@ -4222,7 +4555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="88" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>184</v>
       </c>
@@ -4239,7 +4572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="89" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>186</v>
       </c>
@@ -4256,7 +4589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="90" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>188</v>
       </c>
@@ -4273,7 +4606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="91" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>190</v>
       </c>
@@ -4281,7 +4614,7 @@
         <v>191</v>
       </c>
       <c r="C91" s="5">
-        <v>42095.0416666667</v>
+        <v>42095.041666666701</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
@@ -4290,7 +4623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="92" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>192</v>
       </c>
@@ -4307,7 +4640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="93" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>194</v>
       </c>
@@ -4324,7 +4657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="94" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>196</v>
       </c>
@@ -4341,7 +4674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="95" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>198</v>
       </c>
@@ -4358,7 +4691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="96" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>200</v>
       </c>
@@ -4375,7 +4708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="97" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>202</v>
       </c>
@@ -4392,7 +4725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="98" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>204</v>
       </c>
@@ -4409,7 +4742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="99" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>206</v>
       </c>
@@ -4426,7 +4759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="100" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>208</v>
       </c>
@@ -4443,7 +4776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="92.7942" customHeight="1">
+    <row r="101" spans="1:5" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>210</v>
       </c>
@@ -4451,7 +4784,7 @@
         <v>211</v>
       </c>
       <c r="C101" s="5">
-        <v>42136.0416666667</v>
+        <v>42136.041666666701</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>7</v>
@@ -4460,7 +4793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="102" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>212</v>
       </c>
@@ -4468,7 +4801,7 @@
         <v>213</v>
       </c>
       <c r="C102" s="5">
-        <v>35288.0416666667</v>
+        <v>35288.041666666701</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>7</v>
@@ -4477,7 +4810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="103" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>214</v>
       </c>
@@ -4494,7 +4827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="104" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>216</v>
       </c>
@@ -4502,7 +4835,7 @@
         <v>217</v>
       </c>
       <c r="C104" s="5">
-        <v>42485.0416666667</v>
+        <v>42485.041666666701</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>7</v>
@@ -4511,7 +4844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="105" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>218</v>
       </c>
@@ -4528,7 +4861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="106" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>220</v>
       </c>
@@ -4545,7 +4878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="107" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>222</v>
       </c>
@@ -4553,7 +4886,7 @@
         <v>223</v>
       </c>
       <c r="C107" s="5">
-        <v>42560.0416666667</v>
+        <v>42560.041666666701</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>7</v>
@@ -4562,7 +4895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="108" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>224</v>
       </c>
@@ -4570,7 +4903,7 @@
         <v>225</v>
       </c>
       <c r="C108" s="5">
-        <v>40011.0416666667</v>
+        <v>40011.041666666701</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>7</v>
@@ -4579,7 +4912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="109" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>226</v>
       </c>
@@ -4587,7 +4920,7 @@
         <v>227</v>
       </c>
       <c r="C109" s="5">
-        <v>40725.0416666667</v>
+        <v>40725.041666666701</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>7</v>
@@ -4596,7 +4929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="110" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>228</v>
       </c>
@@ -4604,7 +4937,7 @@
         <v>229</v>
       </c>
       <c r="C110" s="5">
-        <v>42552.0416666667</v>
+        <v>42552.041666666701</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>7</v>
@@ -4613,7 +4946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="111" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>230</v>
       </c>
@@ -4621,7 +4954,7 @@
         <v>231</v>
       </c>
       <c r="C111" s="5">
-        <v>42210.0416666667</v>
+        <v>42210.041666666701</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>7</v>
@@ -4630,7 +4963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="112" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>232</v>
       </c>
@@ -4638,7 +4971,7 @@
         <v>233</v>
       </c>
       <c r="C112" s="5">
-        <v>42614.0416666667</v>
+        <v>42614.041666666701</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>7</v>
@@ -4647,7 +4980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="153.0571" customHeight="1">
+    <row r="113" spans="1:5" s="1" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>234</v>
       </c>
@@ -4655,7 +4988,7 @@
         <v>235</v>
       </c>
       <c r="C113" s="5">
-        <v>42600.0416666667</v>
+        <v>42600.041666666701</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>7</v>
@@ -4664,7 +4997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="114" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>236</v>
       </c>
@@ -4672,7 +5005,7 @@
         <v>237</v>
       </c>
       <c r="C114" s="5">
-        <v>42601.0416666667</v>
+        <v>42601.041666666701</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>7</v>
@@ -4681,7 +5014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="115" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>238</v>
       </c>
@@ -4698,7 +5031,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="116" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>241</v>
       </c>
@@ -4706,7 +5039,7 @@
         <v>242</v>
       </c>
       <c r="C116" s="5">
-        <v>41149.0416666667</v>
+        <v>41149.041666666701</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>7</v>
@@ -4715,7 +5048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="113.0596" customHeight="1">
+    <row r="117" spans="1:5" s="1" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>243</v>
       </c>
@@ -4723,7 +5056,7 @@
         <v>244</v>
       </c>
       <c r="C117" s="5">
-        <v>42278.0416666667</v>
+        <v>42278.041666666701</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>245</v>
@@ -4732,7 +5065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="118" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>246</v>
       </c>
@@ -4749,7 +5082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="119" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>248</v>
       </c>
@@ -4757,7 +5090,7 @@
         <v>249</v>
       </c>
       <c r="C119" s="5">
-        <v>42283.0416666667</v>
+        <v>42283.041666666701</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>7</v>
@@ -4766,7 +5099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="120" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>250</v>
       </c>
@@ -4774,7 +5107,7 @@
         <v>251</v>
       </c>
       <c r="C120" s="5">
-        <v>42676.0416666667</v>
+        <v>42676.041666666701</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>7</v>
@@ -4783,7 +5116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="121" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>252</v>
       </c>
@@ -4800,7 +5133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="122" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>254</v>
       </c>
@@ -4817,7 +5150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="123" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>256</v>
       </c>
@@ -4825,7 +5158,7 @@
         <v>257</v>
       </c>
       <c r="C123" s="5">
-        <v>42874.0416666667</v>
+        <v>42874.041666666701</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>7</v>
@@ -4834,7 +5167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="124" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>258</v>
       </c>
@@ -4851,7 +5184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="125" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>260</v>
       </c>
@@ -4868,7 +5201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="126" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>262</v>
       </c>
@@ -4876,7 +5209,7 @@
         <v>263</v>
       </c>
       <c r="C126" s="5">
-        <v>42846.0416666667</v>
+        <v>42846.041666666701</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>7</v>
@@ -4885,7 +5218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="127" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>264</v>
       </c>
@@ -4902,7 +5235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="128" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>266</v>
       </c>
@@ -4910,7 +5243,7 @@
         <v>267</v>
       </c>
       <c r="C128" s="5">
-        <v>42679.0416666667</v>
+        <v>42679.041666666701</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>7</v>
@@ -4919,7 +5252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="129" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>268</v>
       </c>
@@ -4936,7 +5269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="130" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>270</v>
       </c>
@@ -4944,7 +5277,7 @@
         <v>271</v>
       </c>
       <c r="C130" s="5">
-        <v>42666.0416666667</v>
+        <v>42666.041666666701</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>7</v>
@@ -4953,7 +5286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="131" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>272</v>
       </c>
@@ -4970,7 +5303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="132" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>274</v>
       </c>
@@ -4978,7 +5311,7 @@
         <v>275</v>
       </c>
       <c r="C132" s="5">
-        <v>42938.0416666667</v>
+        <v>42938.041666666701</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>7</v>
@@ -4987,7 +5320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="133" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>276</v>
       </c>
@@ -5004,7 +5337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="134" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>278</v>
       </c>
@@ -5021,7 +5354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="135" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>280</v>
       </c>
@@ -5038,7 +5371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="136" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>282</v>
       </c>
@@ -5055,7 +5388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" ht="113.0596" customHeight="1">
+    <row r="137" spans="1:5" s="1" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>284</v>
       </c>
@@ -5072,7 +5405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="138" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>286</v>
       </c>
@@ -5089,7 +5422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="92.7942" customHeight="1">
+    <row r="139" spans="1:5" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>288</v>
       </c>
@@ -5106,7 +5439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="140" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>290</v>
       </c>
@@ -5123,7 +5456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="141" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>292</v>
       </c>
@@ -5140,7 +5473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="142" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>294</v>
       </c>
@@ -5148,7 +5481,7 @@
         <v>295</v>
       </c>
       <c r="C142" s="5">
-        <v>42626.0416666667</v>
+        <v>42626.041666666701</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>7</v>
@@ -5157,7 +5490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="143" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>296</v>
       </c>
@@ -5174,7 +5507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="144" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>298</v>
       </c>
@@ -5182,7 +5515,7 @@
         <v>299</v>
       </c>
       <c r="C144" s="5">
-        <v>42818.0416666667</v>
+        <v>42818.041666666701</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>7</v>
@@ -5191,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="145" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>300</v>
       </c>
@@ -5208,7 +5541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="146" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>302</v>
       </c>
@@ -5216,7 +5549,7 @@
         <v>303</v>
       </c>
       <c r="C146" s="5">
-        <v>34581.0416666667</v>
+        <v>34581.041666666701</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>7</v>
@@ -5225,7 +5558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="147" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>304</v>
       </c>
@@ -5233,7 +5566,7 @@
         <v>305</v>
       </c>
       <c r="C147" s="5">
-        <v>33107.0416666667</v>
+        <v>33107.041666666701</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>7</v>
@@ -5242,7 +5575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="148" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>306</v>
       </c>
@@ -5259,7 +5592,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="149" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>308</v>
       </c>
@@ -5267,7 +5600,7 @@
         <v>309</v>
       </c>
       <c r="C149" s="5">
-        <v>42471.0416666667</v>
+        <v>42471.041666666701</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>7</v>
@@ -5276,7 +5609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="150" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>310</v>
       </c>
@@ -5293,7 +5626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="151" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>312</v>
       </c>
@@ -5310,7 +5643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="152" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>314</v>
       </c>
@@ -5318,7 +5651,7 @@
         <v>315</v>
       </c>
       <c r="C152" s="5">
-        <v>42572.0416666667</v>
+        <v>42572.041666666701</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>7</v>
@@ -5327,7 +5660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="153" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>316</v>
       </c>
@@ -5344,7 +5677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="154" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>318</v>
       </c>
@@ -5352,7 +5685,7 @@
         <v>319</v>
       </c>
       <c r="C154" s="5">
-        <v>34842.0416666667</v>
+        <v>34842.041666666701</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>7</v>
@@ -5361,7 +5694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="155" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>320</v>
       </c>
@@ -5369,7 +5702,7 @@
         <v>321</v>
       </c>
       <c r="C155" s="5">
-        <v>42499.0416666667</v>
+        <v>42499.041666666701</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>7</v>
@@ -5378,7 +5711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="156" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>322</v>
       </c>
@@ -5386,7 +5719,7 @@
         <v>323</v>
       </c>
       <c r="C156" s="5">
-        <v>35594.0416666667</v>
+        <v>35594.041666666701</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>7</v>
@@ -5395,7 +5728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="157" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>324</v>
       </c>
@@ -5412,7 +5745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="158" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>326</v>
       </c>
@@ -5420,7 +5753,7 @@
         <v>327</v>
       </c>
       <c r="C158" s="5">
-        <v>38289.0416666667</v>
+        <v>38289.041666666701</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>7</v>
@@ -5429,7 +5762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="159" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>328</v>
       </c>
@@ -5437,7 +5770,7 @@
         <v>329</v>
       </c>
       <c r="C159" s="5">
-        <v>38811.0416666667</v>
+        <v>38811.041666666701</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>7</v>
@@ -5446,7 +5779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="160" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>330</v>
       </c>
@@ -5454,7 +5787,7 @@
         <v>331</v>
       </c>
       <c r="C160" s="5">
-        <v>43187.0416666667</v>
+        <v>43187.041666666701</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>332</v>
@@ -5463,7 +5796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="161" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>333</v>
       </c>
@@ -5471,7 +5804,7 @@
         <v>334</v>
       </c>
       <c r="C161" s="5">
-        <v>40418.0416666667</v>
+        <v>40418.041666666701</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>7</v>
@@ -5480,7 +5813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="162" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>335</v>
       </c>
@@ -5488,7 +5821,7 @@
         <v>336</v>
       </c>
       <c r="C162" s="5">
-        <v>42308.0416666667</v>
+        <v>42308.041666666701</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>7</v>
@@ -5497,7 +5830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="163" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>337</v>
       </c>
@@ -5505,7 +5838,7 @@
         <v>338</v>
       </c>
       <c r="C163" s="5">
-        <v>42904.0416666667</v>
+        <v>42904.041666666701</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>7</v>
@@ -5514,7 +5847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="164" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>339</v>
       </c>
@@ -5531,7 +5864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="165" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>341</v>
       </c>
@@ -5539,7 +5872,7 @@
         <v>342</v>
       </c>
       <c r="C165" s="5">
-        <v>42560.0416666667</v>
+        <v>42560.041666666701</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>7</v>
@@ -5548,7 +5881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="166" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>343</v>
       </c>
@@ -5556,7 +5889,7 @@
         <v>344</v>
       </c>
       <c r="C166" s="5">
-        <v>41435.0416666667</v>
+        <v>41435.041666666701</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>7</v>
@@ -5565,7 +5898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="167" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>345</v>
       </c>
@@ -5582,7 +5915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="168" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>347</v>
       </c>
@@ -5599,7 +5932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="169" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>349</v>
       </c>
@@ -5616,7 +5949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="170" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>351</v>
       </c>
@@ -5633,7 +5966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="171" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
         <v>353</v>
       </c>
@@ -5650,7 +5983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="172" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>355</v>
       </c>
@@ -5667,7 +6000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="173" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>357</v>
       </c>
@@ -5675,7 +6008,7 @@
         <v>358</v>
       </c>
       <c r="C173" s="5">
-        <v>38276.0416666667</v>
+        <v>38276.041666666701</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>7</v>
@@ -5684,7 +6017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="174" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>359</v>
       </c>
@@ -5692,7 +6025,7 @@
         <v>360</v>
       </c>
       <c r="C174" s="5">
-        <v>39169.0416666667</v>
+        <v>39169.041666666701</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>7</v>
@@ -5701,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="175" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>361</v>
       </c>
@@ -5718,7 +6051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" ht="92.7942" customHeight="1">
+    <row r="176" spans="1:5" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>363</v>
       </c>
@@ -5726,7 +6059,7 @@
         <v>364</v>
       </c>
       <c r="C176" s="5">
-        <v>39706.0416666667</v>
+        <v>39706.041666666701</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>7</v>
@@ -5735,7 +6068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="177" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
         <v>365</v>
       </c>
@@ -5752,7 +6085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="92.7942" customHeight="1">
+    <row r="178" spans="1:5" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
         <v>367</v>
       </c>
@@ -5760,7 +6093,7 @@
         <v>368</v>
       </c>
       <c r="C178" s="5">
-        <v>37772.0416666667</v>
+        <v>37772.041666666701</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>7</v>
@@ -5769,7 +6102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="179" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
         <v>369</v>
       </c>
@@ -5786,7 +6119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="180" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>371</v>
       </c>
@@ -5803,7 +6136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="181" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
         <v>373</v>
       </c>
@@ -5811,14 +6144,14 @@
         <v>374</v>
       </c>
       <c r="C181" s="5">
-        <v>39216.0416666667</v>
+        <v>39216.041666666701</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="182" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>375</v>
       </c>
@@ -5835,7 +6168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="183" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
         <v>377</v>
       </c>
@@ -5843,7 +6176,7 @@
         <v>378</v>
       </c>
       <c r="C183" s="5">
-        <v>43300.0416666667</v>
+        <v>43300.041666666701</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>7</v>
@@ -5852,7 +6185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="184" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
         <v>379</v>
       </c>
@@ -5869,7 +6202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="185" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
         <v>381</v>
       </c>
@@ -5877,7 +6210,7 @@
         <v>382</v>
       </c>
       <c r="C185" s="5">
-        <v>42635.0416666667</v>
+        <v>42635.041666666701</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>7</v>
@@ -5886,7 +6219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="186" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
         <v>383</v>
       </c>
@@ -5894,7 +6227,7 @@
         <v>384</v>
       </c>
       <c r="C186" s="5">
-        <v>43284.0416666667</v>
+        <v>43284.041666666701</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>7</v>
@@ -5903,7 +6236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="187" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
         <v>385</v>
       </c>
@@ -5911,7 +6244,7 @@
         <v>386</v>
       </c>
       <c r="C187" s="5">
-        <v>42960.0416666667</v>
+        <v>42960.041666666701</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>7</v>
@@ -5920,7 +6253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="188" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
         <v>387</v>
       </c>
@@ -5937,7 +6270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="189" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
         <v>389</v>
       </c>
@@ -5945,7 +6278,7 @@
         <v>390</v>
       </c>
       <c r="C189" s="5">
-        <v>42961.0416666667</v>
+        <v>42961.041666666701</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>7</v>
@@ -5954,7 +6287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="190" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
         <v>391</v>
       </c>
@@ -5962,7 +6295,7 @@
         <v>392</v>
       </c>
       <c r="C190" s="5">
-        <v>42600.0416666667</v>
+        <v>42600.041666666701</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>7</v>
@@ -5971,7 +6304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="191" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
         <v>393</v>
       </c>
@@ -5988,7 +6321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="192" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
         <v>395</v>
       </c>
@@ -5996,7 +6329,7 @@
         <v>396</v>
       </c>
       <c r="C192" s="5">
-        <v>43244.0416666667</v>
+        <v>43244.041666666701</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>7</v>
@@ -6005,7 +6338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="193" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
         <v>397</v>
       </c>
@@ -6013,7 +6346,7 @@
         <v>398</v>
       </c>
       <c r="C193" s="5">
-        <v>42977.0416666667</v>
+        <v>42977.041666666701</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>7</v>
@@ -6022,7 +6355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="194" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
         <v>399</v>
       </c>
@@ -6030,7 +6363,7 @@
         <v>400</v>
       </c>
       <c r="C194" s="5">
-        <v>42622.0416666667</v>
+        <v>42622.041666666701</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>7</v>
@@ -6039,7 +6372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="195" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
         <v>401</v>
       </c>
@@ -6047,7 +6380,7 @@
         <v>402</v>
       </c>
       <c r="C195" s="5">
-        <v>42982.0416666667</v>
+        <v>42982.041666666701</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>7</v>
@@ -6056,7 +6389,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="196" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="196" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
         <v>403</v>
       </c>
@@ -6064,7 +6397,7 @@
         <v>404</v>
       </c>
       <c r="C196" s="5">
-        <v>42208.0416666667</v>
+        <v>42208.041666666701</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>7</v>
@@ -6073,7 +6406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="197" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
         <v>405</v>
       </c>
@@ -6090,7 +6423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="198" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="198" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
         <v>407</v>
       </c>
@@ -6098,7 +6431,7 @@
         <v>408</v>
       </c>
       <c r="C198" s="5">
-        <v>43246.0416666667</v>
+        <v>43246.041666666701</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>7</v>
@@ -6107,7 +6440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="199" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
         <v>409</v>
       </c>
@@ -6115,7 +6448,7 @@
         <v>410</v>
       </c>
       <c r="C199" s="5">
-        <v>42648.0416666667</v>
+        <v>42648.041666666701</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>7</v>
@@ -6124,7 +6457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="200" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
         <v>411</v>
       </c>
@@ -6132,7 +6465,7 @@
         <v>412</v>
       </c>
       <c r="C200" s="5">
-        <v>42988.0416666667</v>
+        <v>42988.041666666701</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>7</v>
@@ -6141,7 +6474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="201" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
         <v>413</v>
       </c>
@@ -6158,7 +6491,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="202" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
         <v>415</v>
       </c>
@@ -6166,7 +6499,7 @@
         <v>416</v>
       </c>
       <c r="C202" s="5">
-        <v>43236.0416666667</v>
+        <v>43236.041666666701</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>7</v>
@@ -6175,7 +6508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="203" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
         <v>417</v>
       </c>
@@ -6192,7 +6525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="204" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
         <v>419</v>
       </c>
@@ -6209,7 +6542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="205" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
         <v>421</v>
       </c>
@@ -6217,7 +6550,7 @@
         <v>422</v>
       </c>
       <c r="C205" s="5">
-        <v>43199.0416666667</v>
+        <v>43199.041666666701</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>7</v>
@@ -6226,7 +6559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="206" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
         <v>423</v>
       </c>
@@ -6234,7 +6567,7 @@
         <v>424</v>
       </c>
       <c r="C206" s="5">
-        <v>32291.0416666667</v>
+        <v>32291.041666666701</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>7</v>
@@ -6243,7 +6576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="207" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
         <v>425</v>
       </c>
@@ -6251,7 +6584,7 @@
         <v>426</v>
       </c>
       <c r="C207" s="5">
-        <v>43382.0416666667</v>
+        <v>43382.041666666701</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>7</v>
@@ -6260,7 +6593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="208" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
         <v>427</v>
       </c>
@@ -6277,7 +6610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="209" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
         <v>429</v>
       </c>
@@ -6285,7 +6618,7 @@
         <v>430</v>
       </c>
       <c r="C209" s="5">
-        <v>43192.0416666667</v>
+        <v>43192.041666666701</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>7</v>
@@ -6294,7 +6627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="210" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
         <v>431</v>
       </c>
@@ -6311,7 +6644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="211" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
         <v>433</v>
       </c>
@@ -6319,7 +6652,7 @@
         <v>434</v>
       </c>
       <c r="C211" s="5">
-        <v>42850.0416666667</v>
+        <v>42850.041666666701</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>7</v>
@@ -6328,7 +6661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="212" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
         <v>435</v>
       </c>
@@ -6345,7 +6678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="213" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
         <v>437</v>
       </c>
@@ -6353,7 +6686,7 @@
         <v>438</v>
       </c>
       <c r="C213" s="5">
-        <v>42985.0416666667</v>
+        <v>42985.041666666701</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>7</v>
@@ -6362,7 +6695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="214" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
         <v>439</v>
       </c>
@@ -6370,7 +6703,7 @@
         <v>440</v>
       </c>
       <c r="C214" s="5">
-        <v>43321.0416666667</v>
+        <v>43321.041666666701</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>7</v>
@@ -6379,7 +6712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="215" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
         <v>441</v>
       </c>
@@ -6387,7 +6720,7 @@
         <v>442</v>
       </c>
       <c r="C215" s="5">
-        <v>42641.0416666667</v>
+        <v>42641.041666666701</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>7</v>
@@ -6396,7 +6729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="216" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
         <v>443</v>
       </c>
@@ -6413,7 +6746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="217" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
         <v>445</v>
       </c>
@@ -6421,7 +6754,7 @@
         <v>446</v>
       </c>
       <c r="C217" s="5">
-        <v>42976.0416666667</v>
+        <v>42976.041666666701</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>7</v>
@@ -6430,7 +6763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="218" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
         <v>447</v>
       </c>
@@ -6447,7 +6780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="219" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
         <v>449</v>
       </c>
@@ -6464,7 +6797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="220" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
         <v>451</v>
       </c>
@@ -6472,7 +6805,7 @@
         <v>452</v>
       </c>
       <c r="C220" s="5">
-        <v>38972.0416666667</v>
+        <v>38972.041666666701</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>7</v>
@@ -6481,7 +6814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" s="1" customFormat="1" ht="153.0571" customHeight="1">
+    <row r="221" spans="1:5" s="1" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
         <v>453</v>
       </c>
@@ -6498,7 +6831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="222" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="222" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
         <v>455</v>
       </c>
@@ -6515,7 +6848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="223" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
         <v>457</v>
       </c>
@@ -6523,7 +6856,7 @@
         <v>458</v>
       </c>
       <c r="C223" s="5">
-        <v>43277.0416666667</v>
+        <v>43277.041666666701</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>7</v>
@@ -6532,7 +6865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="224" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
         <v>459</v>
       </c>
@@ -6540,7 +6873,7 @@
         <v>460</v>
       </c>
       <c r="C224" s="5">
-        <v>32660.0416666667</v>
+        <v>32660.041666666701</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>7</v>
@@ -6549,7 +6882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="225" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
         <v>461</v>
       </c>
@@ -6566,7 +6899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="226" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
         <v>463</v>
       </c>
@@ -6583,7 +6916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="227" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="227" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
         <v>465</v>
       </c>
@@ -6591,7 +6924,7 @@
         <v>466</v>
       </c>
       <c r="C227" s="5">
-        <v>43257.0416666667</v>
+        <v>43257.041666666701</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>7</v>
@@ -6600,7 +6933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="228" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
         <v>467</v>
       </c>
@@ -6617,7 +6950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" s="1" customFormat="1" ht="113.0596" customHeight="1">
+    <row r="229" spans="1:5" s="1" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
         <v>469</v>
       </c>
@@ -6625,7 +6958,7 @@
         <v>470</v>
       </c>
       <c r="C229" s="5">
-        <v>42976.0416666667</v>
+        <v>42976.041666666701</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>7</v>
@@ -6634,7 +6967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="230" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
         <v>471</v>
       </c>
@@ -6642,7 +6975,7 @@
         <v>472</v>
       </c>
       <c r="C230" s="5">
-        <v>41886.0416666667</v>
+        <v>41886.041666666701</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>7</v>
@@ -6651,7 +6984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="231" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
         <v>473</v>
       </c>
@@ -6659,7 +6992,7 @@
         <v>474</v>
       </c>
       <c r="C231" s="5">
-        <v>38166.0416666667</v>
+        <v>38166.041666666701</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>7</v>
@@ -6668,7 +7001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="232" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
         <v>475</v>
       </c>
@@ -6685,7 +7018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="233" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
         <v>477</v>
       </c>
@@ -6693,7 +7026,7 @@
         <v>478</v>
       </c>
       <c r="C233" s="5">
-        <v>39890.0416666667</v>
+        <v>39890.041666666701</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>7</v>
@@ -6702,7 +7035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="234" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
         <v>479</v>
       </c>
@@ -6710,7 +7043,7 @@
         <v>480</v>
       </c>
       <c r="C234" s="5">
-        <v>41759.0416666667</v>
+        <v>41759.041666666701</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>7</v>
@@ -6719,7 +7052,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="235" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
         <v>481</v>
       </c>
@@ -6727,7 +7060,7 @@
         <v>482</v>
       </c>
       <c r="C235" s="5">
-        <v>43295.0416666667</v>
+        <v>43295.041666666701</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>7</v>
@@ -6736,7 +7069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="236" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="236" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
         <v>483</v>
       </c>
@@ -6753,7 +7086,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="237" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
         <v>486</v>
       </c>
@@ -6770,7 +7103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="238" s="1" customFormat="1" ht="92.7942" customHeight="1">
+    <row r="238" spans="1:5" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
         <v>488</v>
       </c>
@@ -6778,7 +7111,7 @@
         <v>489</v>
       </c>
       <c r="C238" s="5">
-        <v>43275.0416666667</v>
+        <v>43275.041666666701</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>7</v>
@@ -6787,7 +7120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="239" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
         <v>490</v>
       </c>
@@ -6795,7 +7128,7 @@
         <v>491</v>
       </c>
       <c r="C239" s="5">
-        <v>43205.0416666667</v>
+        <v>43205.041666666701</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>7</v>
@@ -6804,7 +7137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="240" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
         <v>492</v>
       </c>
@@ -6821,7 +7154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="241" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="241" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
         <v>494</v>
       </c>
@@ -6829,7 +7162,7 @@
         <v>495</v>
       </c>
       <c r="C241" s="5">
-        <v>38178.0416666667</v>
+        <v>38178.041666666701</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>7</v>
@@ -6838,7 +7171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="242" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
         <v>496</v>
       </c>
@@ -6846,7 +7179,7 @@
         <v>497</v>
       </c>
       <c r="C242" s="5">
-        <v>38597.0416666667</v>
+        <v>38597.041666666701</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>7</v>
@@ -6855,7 +7188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="243" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
         <v>498</v>
       </c>
@@ -6863,7 +7196,7 @@
         <v>499</v>
       </c>
       <c r="C243" s="5">
-        <v>37432.0416666667</v>
+        <v>37432.041666666701</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>7</v>
@@ -6872,7 +7205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="244" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
         <v>500</v>
       </c>
@@ -6889,7 +7222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="245" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
         <v>502</v>
       </c>
@@ -6897,7 +7230,7 @@
         <v>503</v>
       </c>
       <c r="C245" s="5">
-        <v>38195.0416666667</v>
+        <v>38195.041666666701</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>7</v>
@@ -6906,7 +7239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="246" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
         <v>504</v>
       </c>
@@ -6923,7 +7256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="247" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
         <v>506</v>
       </c>
@@ -6931,7 +7264,7 @@
         <v>507</v>
       </c>
       <c r="C247" s="5">
-        <v>42652.0416666667</v>
+        <v>42652.041666666701</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>7</v>
@@ -6940,7 +7273,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="248" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="248" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
         <v>509</v>
       </c>
@@ -6948,7 +7281,7 @@
         <v>510</v>
       </c>
       <c r="C248" s="5">
-        <v>32666.0416666667</v>
+        <v>32666.041666666701</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>7</v>
@@ -6957,7 +7290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="249" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
         <v>511</v>
       </c>
@@ -6974,7 +7307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="250" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
         <v>513</v>
       </c>
@@ -6991,7 +7324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="251" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
         <v>515</v>
       </c>
@@ -7008,7 +7341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="252" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
         <v>517</v>
       </c>
@@ -7025,7 +7358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="253" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
         <v>519</v>
       </c>
@@ -7042,7 +7375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="254" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
         <v>521</v>
       </c>
@@ -7059,7 +7392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="255" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
         <v>523</v>
       </c>
@@ -7067,7 +7400,7 @@
         <v>524</v>
       </c>
       <c r="C255" s="5">
-        <v>37441.0416666667</v>
+        <v>37441.041666666701</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>7</v>
@@ -7076,7 +7409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="256" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
         <v>525</v>
       </c>
@@ -7093,7 +7426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="257" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
         <v>527</v>
       </c>
@@ -7110,7 +7443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="258" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
         <v>529</v>
       </c>
@@ -7127,7 +7460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="259" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
         <v>531</v>
       </c>
@@ -7144,7 +7477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="260" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
         <v>533</v>
       </c>
@@ -7161,7 +7494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="261" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
         <v>535</v>
       </c>
@@ -7178,7 +7511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="262" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
         <v>537</v>
       </c>
@@ -7195,7 +7528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="263" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
         <v>539</v>
       </c>
@@ -7212,7 +7545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="264" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
         <v>541</v>
       </c>
@@ -7229,7 +7562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="265" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
         <v>543</v>
       </c>
@@ -7246,7 +7579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="266" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
         <v>545</v>
       </c>
@@ -7263,7 +7596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="267" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
         <v>547</v>
       </c>
@@ -7280,7 +7613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="268" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
         <v>549</v>
       </c>
@@ -7297,7 +7630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="269" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
         <v>551</v>
       </c>
@@ -7314,7 +7647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="270" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
         <v>553</v>
       </c>
@@ -7331,7 +7664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="271" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="271" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
         <v>555</v>
       </c>
@@ -7348,7 +7681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="272" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
         <v>557</v>
       </c>
@@ -7365,7 +7698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="273" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
         <v>559</v>
       </c>
@@ -7382,7 +7715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="274" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
         <v>561</v>
       </c>
@@ -7399,7 +7732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="275" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
         <v>563</v>
       </c>
@@ -7416,7 +7749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="276" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
         <v>565</v>
       </c>
@@ -7433,7 +7766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="277" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
         <v>567</v>
       </c>
@@ -7450,7 +7783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="278" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
         <v>569</v>
       </c>
@@ -7467,7 +7800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="279" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
         <v>571</v>
       </c>
@@ -7475,7 +7808,7 @@
         <v>572</v>
       </c>
       <c r="C279" s="5">
-        <v>42996.0416666667</v>
+        <v>42996.041666666701</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>7</v>
@@ -7484,7 +7817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="280" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
         <v>573</v>
       </c>
@@ -7501,7 +7834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="281" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
         <v>575</v>
       </c>
@@ -7518,7 +7851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" s="1" customFormat="1" ht="123.1923" customHeight="1">
+    <row r="282" spans="1:5" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
         <v>577</v>
       </c>
@@ -7526,7 +7859,7 @@
         <v>578</v>
       </c>
       <c r="C282" s="5">
-        <v>42827.0416666667</v>
+        <v>42827.041666666701</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>7</v>
@@ -7535,7 +7868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="283" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
         <v>579</v>
       </c>
@@ -7543,7 +7876,7 @@
         <v>580</v>
       </c>
       <c r="C283" s="5">
-        <v>43263.0416666667</v>
+        <v>43263.041666666701</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>7</v>
@@ -7552,7 +7885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="284" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
         <v>581</v>
       </c>
@@ -7569,7 +7902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="285" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
         <v>583</v>
       </c>
@@ -7577,7 +7910,7 @@
         <v>584</v>
       </c>
       <c r="C285" s="5">
-        <v>33496.0416666667</v>
+        <v>33496.041666666701</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>7</v>
@@ -7586,7 +7919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="286" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
         <v>585</v>
       </c>
@@ -7603,7 +7936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="287" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
         <v>587</v>
       </c>
@@ -7611,7 +7944,7 @@
         <v>588</v>
       </c>
       <c r="C287" s="5">
-        <v>38840.0416666667</v>
+        <v>38840.041666666701</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>7</v>
@@ -7620,7 +7953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="288" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
         <v>589</v>
       </c>
@@ -7628,7 +7961,7 @@
         <v>590</v>
       </c>
       <c r="C288" s="5">
-        <v>40101.0416666667</v>
+        <v>40101.041666666701</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>7</v>
@@ -7637,7 +7970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="289" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
         <v>591</v>
       </c>
@@ -7645,7 +7978,7 @@
         <v>592</v>
       </c>
       <c r="C289" s="5">
-        <v>42836.0416666667</v>
+        <v>42836.041666666701</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>7</v>
@@ -7654,7 +7987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="290" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
         <v>593</v>
       </c>
@@ -7662,7 +7995,7 @@
         <v>594</v>
       </c>
       <c r="C290" s="5">
-        <v>43345.0416666667</v>
+        <v>43345.041666666701</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>7</v>
@@ -7671,7 +8004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="291" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
         <v>595</v>
       </c>
@@ -7679,7 +8012,7 @@
         <v>596</v>
       </c>
       <c r="C291" s="5">
-        <v>34103.0416666667</v>
+        <v>34103.041666666701</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>7</v>
@@ -7688,7 +8021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="292" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
         <v>597</v>
       </c>
@@ -7696,7 +8029,7 @@
         <v>598</v>
       </c>
       <c r="C292" s="5">
-        <v>43369.0416666667</v>
+        <v>43369.041666666701</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>7</v>
@@ -7705,7 +8038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="293" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="293" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
         <v>599</v>
       </c>
@@ -7722,7 +8055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="294" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
         <v>601</v>
       </c>
@@ -7730,7 +8063,7 @@
         <v>602</v>
       </c>
       <c r="C294" s="5">
-        <v>42867.0416666667</v>
+        <v>42867.041666666701</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>7</v>
@@ -7739,7 +8072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="295" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
         <v>603</v>
       </c>
@@ -7756,7 +8089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="296" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
         <v>605</v>
       </c>
@@ -7764,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C296" s="5">
-        <v>42858.0416666667</v>
+        <v>42858.041666666701</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>7</v>
@@ -7773,7 +8106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="297" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
         <v>607</v>
       </c>
@@ -7781,7 +8114,7 @@
         <v>608</v>
       </c>
       <c r="C297" s="5">
-        <v>43184.0416666667</v>
+        <v>43184.041666666701</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>7</v>
@@ -7790,7 +8123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="298" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="298" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
         <v>609</v>
       </c>
@@ -7807,7 +8140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="299" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="299" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
         <v>611</v>
       </c>
@@ -7815,7 +8148,7 @@
         <v>612</v>
       </c>
       <c r="C299" s="5">
-        <v>42238.0416666667</v>
+        <v>42238.041666666701</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>7</v>
@@ -7824,7 +8157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="300" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
         <v>613</v>
       </c>
@@ -7841,7 +8174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="301" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
         <v>615</v>
       </c>
@@ -7858,7 +8191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="302" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
         <v>617</v>
       </c>
@@ -7875,7 +8208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="303" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
         <v>619</v>
       </c>
@@ -7892,7 +8225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="304" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
         <v>621</v>
       </c>
@@ -7909,7 +8242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="305" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
         <v>623</v>
       </c>
@@ -7926,7 +8259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="306" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
         <v>625</v>
       </c>
@@ -7943,7 +8276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="307" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
         <v>627</v>
       </c>
@@ -7960,7 +8293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="308" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
         <v>629</v>
       </c>
@@ -7968,7 +8301,7 @@
         <v>630</v>
       </c>
       <c r="C308" s="5">
-        <v>42888.0416666667</v>
+        <v>42888.041666666701</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>7</v>
@@ -7977,7 +8310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="309" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
         <v>631</v>
       </c>
@@ -7985,7 +8318,7 @@
         <v>632</v>
       </c>
       <c r="C309" s="5">
-        <v>42892.0416666667</v>
+        <v>42892.041666666701</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>7</v>
@@ -7994,7 +8327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="310" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
         <v>633</v>
       </c>
@@ -8002,7 +8335,7 @@
         <v>634</v>
       </c>
       <c r="C310" s="5">
-        <v>42855.0416666667</v>
+        <v>42855.041666666701</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>7</v>
@@ -8011,7 +8344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="311" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
         <v>635</v>
       </c>
@@ -8019,7 +8352,7 @@
         <v>636</v>
       </c>
       <c r="C311" s="5">
-        <v>42894.0416666667</v>
+        <v>42894.041666666701</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>7</v>
@@ -8028,7 +8361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="312" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
         <v>637</v>
       </c>
@@ -8045,7 +8378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" s="1" customFormat="1" ht="92.7942" customHeight="1">
+    <row r="313" spans="1:5" s="1" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
         <v>639</v>
       </c>
@@ -8062,7 +8395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="314" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
         <v>641</v>
       </c>
@@ -8079,7 +8412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="315" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="315" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
         <v>643</v>
       </c>
@@ -8087,7 +8420,7 @@
         <v>644</v>
       </c>
       <c r="C315" s="5">
-        <v>43384.0416666667</v>
+        <v>43384.041666666701</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>7</v>
@@ -8096,7 +8429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="316" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
         <v>645</v>
       </c>
@@ -8104,7 +8437,7 @@
         <v>646</v>
       </c>
       <c r="C316" s="5">
-        <v>41146.0416666667</v>
+        <v>41146.041666666701</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>7</v>
@@ -8113,7 +8446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="317" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
         <v>647</v>
       </c>
@@ -8130,7 +8463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="318" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
         <v>649</v>
       </c>
@@ -8138,7 +8471,7 @@
         <v>650</v>
       </c>
       <c r="C318" s="5">
-        <v>39690.0416666667</v>
+        <v>39690.041666666701</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>7</v>
@@ -8147,7 +8480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="319" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
         <v>651</v>
       </c>
@@ -8164,7 +8497,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="320" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="320" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
         <v>653</v>
       </c>
@@ -8181,7 +8514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="321" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
         <v>655</v>
       </c>
@@ -8196,7 +8529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="322" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
         <v>657</v>
       </c>
@@ -8213,7 +8546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="323" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
         <v>659</v>
       </c>
@@ -8230,7 +8563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="324" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="324" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
         <v>661</v>
       </c>
@@ -8245,7 +8578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="325" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="325" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
         <v>663</v>
       </c>
@@ -8253,7 +8586,7 @@
         <v>664</v>
       </c>
       <c r="C325" s="5">
-        <v>43537.0416666667</v>
+        <v>43537.041666666701</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>7</v>
@@ -8262,7 +8595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="326" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="326" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
         <v>665</v>
       </c>
@@ -8279,7 +8612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="327" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="327" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
         <v>667</v>
       </c>
@@ -8296,7 +8629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="328" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="328" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
         <v>669</v>
       </c>
@@ -8313,7 +8646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="329" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="329" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
         <v>671</v>
       </c>
@@ -8330,7 +8663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="330" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="330" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
         <v>673</v>
       </c>
@@ -8347,7 +8680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="331" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
         <v>675</v>
       </c>
@@ -8364,7 +8697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="332" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="332" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
         <v>677</v>
       </c>
@@ -8381,7 +8714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="333" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
         <v>679</v>
       </c>
@@ -8398,7 +8731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="334" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
         <v>681</v>
       </c>
@@ -8415,7 +8748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="335" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
         <v>683</v>
       </c>
@@ -8432,7 +8765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="336" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
         <v>685</v>
       </c>
@@ -8449,7 +8782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="337" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
         <v>687</v>
       </c>
@@ -8464,7 +8797,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="338" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="338" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
         <v>690</v>
       </c>
@@ -8481,7 +8814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="339" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
         <v>692</v>
       </c>
@@ -8498,7 +8831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="340" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
         <v>694</v>
       </c>
@@ -8515,7 +8848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="341" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
         <v>696</v>
       </c>
@@ -8532,7 +8865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="342" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
         <v>698</v>
       </c>
@@ -8549,7 +8882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="343" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
         <v>700</v>
       </c>
@@ -8566,7 +8899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="344" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
         <v>702</v>
       </c>
@@ -8583,7 +8916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="345" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
         <v>704</v>
       </c>
@@ -8591,7 +8924,7 @@
         <v>705</v>
       </c>
       <c r="C345" s="5">
-        <v>43222.0416666667</v>
+        <v>43222.041666666701</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>7</v>
@@ -8600,7 +8933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="346" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
         <v>706</v>
       </c>
@@ -8617,7 +8950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="347" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
         <v>708</v>
       </c>
@@ -8634,7 +8967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="348" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
         <v>710</v>
       </c>
@@ -8651,7 +8984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="349" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
         <v>712</v>
       </c>
@@ -8659,7 +8992,7 @@
         <v>713</v>
       </c>
       <c r="C349" s="5">
-        <v>43372.0416666667</v>
+        <v>43372.041666666701</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>7</v>
@@ -8668,7 +9001,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="350" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="350" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
         <v>714</v>
       </c>
@@ -8685,7 +9018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="351" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="351" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
         <v>716</v>
       </c>
@@ -8700,7 +9033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="352" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="352" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
         <v>718</v>
       </c>
@@ -8717,7 +9050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="353" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
         <v>720</v>
       </c>
@@ -8734,7 +9067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="354" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
         <v>722</v>
       </c>
@@ -8751,7 +9084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="355" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
         <v>724</v>
       </c>
@@ -8768,7 +9101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="356" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
         <v>726</v>
       </c>
@@ -8785,7 +9118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="357" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
         <v>728</v>
       </c>
@@ -8802,7 +9135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="358" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
         <v>730</v>
       </c>
@@ -8819,7 +9152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="359" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
         <v>732</v>
       </c>
@@ -8836,7 +9169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="360" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
         <v>734</v>
       </c>
@@ -8853,7 +9186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="361" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="361" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
         <v>736</v>
       </c>
@@ -8870,7 +9203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="362" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
         <v>738</v>
       </c>
@@ -8887,7 +9220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="363" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
         <v>740</v>
       </c>
@@ -8904,7 +9237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="364" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="364" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
         <v>742</v>
       </c>
@@ -8919,7 +9252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" s="1" customFormat="1" ht="113.0596" customHeight="1">
+    <row r="365" spans="1:5" s="1" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
         <v>744</v>
       </c>
@@ -8936,7 +9269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="366" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="366" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
         <v>746</v>
       </c>
@@ -8953,7 +9286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="367" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
         <v>748</v>
       </c>
@@ -8970,7 +9303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="368" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
         <v>750</v>
       </c>
@@ -8987,7 +9320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="369" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
         <v>752</v>
       </c>
@@ -9004,7 +9337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="370" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="370" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
         <v>754</v>
       </c>
@@ -9021,7 +9354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="371" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
         <v>756</v>
       </c>
@@ -9038,7 +9371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="372" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="372" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
         <v>758</v>
       </c>
@@ -9055,7 +9388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="373" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="373" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
         <v>760</v>
       </c>
@@ -9072,7 +9405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="374" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
         <v>762</v>
       </c>
@@ -9089,7 +9422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="375" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="375" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
         <v>764</v>
       </c>
@@ -9106,7 +9439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="376" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
         <v>766</v>
       </c>
@@ -9123,7 +9456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" s="1" customFormat="1" ht="102.9269" customHeight="1">
+    <row r="377" spans="1:5" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
         <v>768</v>
       </c>
@@ -9140,7 +9473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="378" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
         <v>770</v>
       </c>
@@ -9157,7 +9490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="379" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
         <v>772</v>
       </c>
@@ -9174,7 +9507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" s="1" customFormat="1" ht="113.0596" customHeight="1">
+    <row r="380" spans="1:5" s="1" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
         <v>774</v>
       </c>
@@ -9191,7 +9524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="381" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="381" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
         <v>776</v>
       </c>
@@ -9208,7 +9541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="382" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
         <v>778</v>
       </c>
@@ -9225,7 +9558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="383" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
         <v>780</v>
       </c>
@@ -9242,7 +9575,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="384" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="384" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
         <v>782</v>
       </c>
@@ -9250,7 +9583,7 @@
         <v>783</v>
       </c>
       <c r="C384" s="5">
-        <v>42144.0416666667</v>
+        <v>42144.041666666701</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>7</v>
@@ -9259,7 +9592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="385" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="385" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
         <v>784</v>
       </c>
@@ -9276,7 +9609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="386" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="386" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
         <v>786</v>
       </c>
@@ -9284,7 +9617,7 @@
         <v>787</v>
       </c>
       <c r="C386" s="5">
-        <v>42554.0416666667</v>
+        <v>42554.041666666701</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>7</v>
@@ -9293,7 +9626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="387" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
         <v>788</v>
       </c>
@@ -9301,7 +9634,7 @@
         <v>789</v>
       </c>
       <c r="C387" s="5">
-        <v>43195.0416666667</v>
+        <v>43195.041666666701</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>7</v>
@@ -9310,7 +9643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="388" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="388" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
         <v>790</v>
       </c>
@@ -9318,7 +9651,7 @@
         <v>791</v>
       </c>
       <c r="C388" s="5">
-        <v>43195.0416666667</v>
+        <v>43195.041666666701</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>7</v>
@@ -9327,7 +9660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="389" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
         <v>792</v>
       </c>
@@ -9335,7 +9668,7 @@
         <v>793</v>
       </c>
       <c r="C389" s="5">
-        <v>42900.0416666667</v>
+        <v>42900.041666666701</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>7</v>
@@ -9344,7 +9677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="390" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="390" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
         <v>794</v>
       </c>
@@ -9352,7 +9685,7 @@
         <v>795</v>
       </c>
       <c r="C390" s="5">
-        <v>43225.0416666667</v>
+        <v>43225.041666666701</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>7</v>
@@ -9361,7 +9694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="391" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="391" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
         <v>796</v>
       </c>
@@ -9369,7 +9702,7 @@
         <v>797</v>
       </c>
       <c r="C391" s="5">
-        <v>43539.0416666667</v>
+        <v>43539.041666666701</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>7</v>
@@ -9378,7 +9711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="392" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="392" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
         <v>798</v>
       </c>
@@ -9386,7 +9719,7 @@
         <v>799</v>
       </c>
       <c r="C392" s="5">
-        <v>39176.0416666667</v>
+        <v>39176.041666666701</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>7</v>
@@ -9395,7 +9728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="393" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
         <v>800</v>
       </c>
@@ -9412,7 +9745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="394" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="394" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
         <v>802</v>
       </c>
@@ -9429,7 +9762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="395" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="395" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
         <v>804</v>
       </c>
@@ -9446,7 +9779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="396" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="396" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
         <v>806</v>
       </c>
@@ -9463,7 +9796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="397" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="397" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
         <v>808</v>
       </c>
@@ -9480,7 +9813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="398" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="398" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
         <v>810</v>
       </c>
@@ -9497,7 +9830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="399" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="399" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
         <v>812</v>
       </c>
@@ -9514,7 +9847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="400" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
         <v>814</v>
       </c>
@@ -9531,7 +9864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="401" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
         <v>816</v>
       </c>
@@ -9548,7 +9881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="402" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="402" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
         <v>818</v>
       </c>
@@ -9565,7 +9898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="403" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="403" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
         <v>820</v>
       </c>
@@ -9582,7 +9915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="404" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
         <v>822</v>
       </c>
@@ -9599,7 +9932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" s="1" customFormat="1" ht="73.0621" customHeight="1">
+    <row r="405" spans="1:5" s="1" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
         <v>824</v>
       </c>
@@ -9616,7 +9949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" s="1" customFormat="1" ht="132.7917" customHeight="1">
+    <row r="406" spans="1:5" s="1" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
         <v>826</v>
       </c>
@@ -9633,7 +9966,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="407" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="407" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
         <v>828</v>
       </c>
@@ -9650,7 +9983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="408" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="408" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
         <v>830</v>
       </c>
@@ -9667,7 +10000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="409" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
         <v>832</v>
       </c>
@@ -9684,7 +10017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="410" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="410" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
         <v>834</v>
       </c>
@@ -9701,7 +10034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="411" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
         <v>836</v>
       </c>
@@ -9718,7 +10051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="412" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
         <v>838</v>
       </c>
@@ -9735,7 +10068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="413" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
         <v>840</v>
       </c>
@@ -9752,7 +10085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="414" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="414" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
         <v>842</v>
       </c>
@@ -9769,7 +10102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="415" s="1" customFormat="1" ht="52.7967" customHeight="1">
+    <row r="415" spans="1:5" s="1" customFormat="1" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
         <v>844</v>
       </c>
@@ -9786,7 +10119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="416" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
         <v>846</v>
       </c>
@@ -9803,7 +10136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="417" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
         <v>848</v>
       </c>
@@ -9820,7 +10153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="418" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="418" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
         <v>850</v>
       </c>
@@ -9837,7 +10170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" s="1" customFormat="1" ht="62.9294" customHeight="1">
+    <row r="419" spans="1:5" s="1" customFormat="1" ht="83.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
         <v>852</v>
       </c>
@@ -9854,7 +10187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="420" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="420" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
         <v>854</v>
       </c>
@@ -9871,7 +10204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" s="1" customFormat="1" ht="82.6615" customHeight="1">
+    <row r="421" spans="1:5" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
         <v>856</v>
       </c>
@@ -9888,7 +10221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="422" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="422" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="4" t="s">
         <v>858</v>
       </c>
@@ -9905,7 +10238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" s="1" customFormat="1" ht="42.664" customHeight="1">
+    <row r="423" spans="1:5" s="1" customFormat="1" ht="56.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="4" t="s">
         <v>860</v>
       </c>
@@ -9922,7 +10255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="424" s="1" customFormat="1" ht="33.0646" customHeight="1">
+    <row r="424" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="4" t="s">
         <v>862</v>
       </c>
@@ -9939,7 +10272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="425" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="425" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="4" t="s">
         <v>864</v>
       </c>
@@ -9956,7 +10289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="426" s="1" customFormat="1" ht="23.4652" customHeight="1">
+    <row r="426" spans="1:5" s="1" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="4" t="s">
         <v>866</v>
       </c>
@@ -9973,7 +10306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" s="1" customFormat="1" ht="26.665" customHeight="1">
+    <row r="427" spans="1:5" s="1" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="7"/>
       <c r="B427" s="8" t="s">
         <v>868</v>
@@ -9982,9 +10315,10 @@
       <c r="D427" s="10"/>
       <c r="E427" s="10"/>
     </row>
-    <row r="428" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="428" spans="1:5" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageSetup paperSize="1" scale="100" orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>